--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>scénarii fini, use case fini et maquette fini</t>
+  </si>
+  <si>
+    <t>modication MCD et MLD</t>
+  </si>
+  <si>
+    <t>45min</t>
+  </si>
+  <si>
+    <t>début du code partie graphique</t>
   </si>
 </sst>
 </file>
@@ -605,7 +614,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,19 +716,31 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="4">
+        <v>43133</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="4">
+        <v>43133</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
       <c r="G9" s="5"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>début du code partie graphique</t>
+  </si>
+  <si>
+    <t>modification MCD et MLD et fini la partie graphique, début code login</t>
   </si>
 </sst>
 </file>
@@ -295,15 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,6 +323,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -614,7 +617,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,52 +635,52 @@
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43129</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43132</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
@@ -746,10 +749,16 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="4">
+        <v>43136</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
       <c r="G10" s="5"/>
@@ -918,51 +927,51 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="15"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="15"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="15"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="15"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="15"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="15"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="15"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -970,294 +979,203 @@
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="16"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="15"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1282,6 +1200,97 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>modification MCD et MLD et fini la partie graphique, début code login</t>
+  </si>
+  <si>
+    <t>absent du au décès de ma grand-maman</t>
+  </si>
+  <si>
+    <t>recherche d'une methode de cryptage du mot de passe</t>
+  </si>
+  <si>
+    <t>création de la classe cryptage</t>
   </si>
 </sst>
 </file>
@@ -617,7 +626,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,28 +773,46 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="4">
+        <v>43137</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="4">
+        <v>43139</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="4">
+        <v>43139</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
       <c r="G13" s="5"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>création de la classe cryptage</t>
+  </si>
+  <si>
+    <t>modification MLD</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,10 +821,16 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="4">
+        <v>43139</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
       <c r="G14" s="5"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>modification MLD</t>
+  </si>
+  <si>
+    <t>code classe Produit, Loueur, Location, et connection bd</t>
   </si>
 </sst>
 </file>
@@ -310,6 +313,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,15 +347,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -629,7 +632,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,52 +650,52 @@
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43129</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43132</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
@@ -836,19 +839,31 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="4">
+        <v>43140</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="15"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="4">
+        <v>43143</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="15"/>
       <c r="G16" s="5"/>
@@ -963,51 +978,51 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="15"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="25"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="15"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="25"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="15"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="25"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="25"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="15"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="25"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="25"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="15"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="25"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="25"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="15"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="25"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="15"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="25"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,203 +1030,294 @@
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="25"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="25"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="15"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="25"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1236,97 +1342,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>code classe Produit, Loueur, Location, et connection bd</t>
+  </si>
+  <si>
+    <t>modification des maquettes, modification graphique code</t>
   </si>
 </sst>
 </file>
@@ -313,15 +316,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,6 +341,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -632,7 +635,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,52 +653,52 @@
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43129</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43132</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
@@ -869,10 +872,16 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="4">
+        <v>43144</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
       <c r="G17" s="5"/>
@@ -978,51 +987,51 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="15"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="15"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="15"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="15"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="15"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="15"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="15"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1030,294 +1039,203 @@
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="16"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="15"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1342,6 +1260,97 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>modification des maquettes, modification graphique code</t>
+  </si>
+  <si>
+    <t>5h15</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>requet sql</t>
   </si>
 </sst>
 </file>
@@ -316,6 +325,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,15 +359,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -635,7 +644,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,52 +662,52 @@
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43129</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43132</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
@@ -887,19 +896,31 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="4">
+        <v>43146</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="4">
+        <v>43147</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="5"/>
@@ -987,51 +1008,51 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="15"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="25"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="15"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="25"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="15"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="25"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="25"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="15"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="25"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="25"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="15"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="25"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="25"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="15"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="25"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="15"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="25"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1039,203 +1060,294 @@
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="25"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="25"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="15"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="25"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1260,97 +1372,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>requet sql</t>
+  </si>
+  <si>
+    <t>ajoute de la requet modificationProduit et modification graphique sur le formEntree</t>
   </si>
 </sst>
 </file>
@@ -325,15 +328,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -359,6 +353,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +647,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+      <selection activeCell="E20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,52 +665,52 @@
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43129</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43132</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
@@ -926,10 +929,16 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="4">
+        <v>43157</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
       <c r="G20" s="5"/>
@@ -1008,51 +1017,51 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="15"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="15"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="15"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="15"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="15"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="15"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="15"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,294 +1069,203 @@
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="16"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="15"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1372,6 +1290,97 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>ajoute de la requet modificationProduit et modification graphique sur le formEntree</t>
+  </si>
+  <si>
+    <t>ajout de code dans le formRetour et la classe Connection_mySQL</t>
   </si>
 </sst>
 </file>
@@ -328,6 +331,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,15 +365,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -647,7 +650,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,52 +668,52 @@
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43129</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43132</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
@@ -944,10 +947,16 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="4">
+        <v>43158</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="15"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="15"/>
       <c r="G21" s="5"/>
@@ -1017,51 +1026,51 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="15"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="25"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="15"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="25"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="15"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="25"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="25"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="15"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="25"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="25"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="15"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="25"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="25"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="15"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="25"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="15"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="25"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,203 +1078,294 @@
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="25"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="25"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="15"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="25"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1290,97 +1390,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>ajout de code dans le formRetour et la classe Connection_mySQL</t>
+  </si>
+  <si>
+    <t>code partie rechercher et location avec le retour et le début de la location</t>
   </si>
 </sst>
 </file>
@@ -331,6 +334,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,33 +368,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -650,7 +653,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,52 +671,52 @@
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43129</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43132</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
@@ -962,10 +965,16 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="4">
+        <v>43160</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="15"/>
       <c r="G22" s="5"/>
@@ -1026,51 +1035,51 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="15"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="15"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="15"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="15"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="15"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="15"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="15"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1078,294 +1087,203 @@
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="16"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="15"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1390,6 +1308,97 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -98,9 +98,6 @@
     <t>5h15</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>requet sql</t>
   </si>
   <si>
@@ -111,6 +108,12 @@
   </si>
   <si>
     <t>code partie rechercher et location avec le retour et le début de la location</t>
+  </si>
+  <si>
+    <t>code partie rechercher mot-clès</t>
+  </si>
+  <si>
+    <t>ajout d'un formulaire pour le retour, ajout de code dans la classe connection_mySQL, modification du hash passage de MD5 à bcrypt, correction de divers bug</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -334,6 +337,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,14 +373,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,52 +677,52 @@
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43129</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43132</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
@@ -904,14 +910,14 @@
       <c r="F17" s="15"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
         <v>43146</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="15"/>
+      <c r="B18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="24"/>
       <c r="D18" s="11" t="s">
         <v>23</v>
       </c>
@@ -924,7 +930,7 @@
         <v>43147</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="11" t="s">
@@ -939,7 +945,7 @@
         <v>43157</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="11" t="s">
@@ -954,7 +960,7 @@
         <v>43158</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="11" t="s">
@@ -969,7 +975,7 @@
         <v>43160</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="11" t="s">
@@ -980,10 +986,16 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="4">
+        <v>43161</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="5"/>
@@ -1035,51 +1047,51 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="15"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="25"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="15"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="25"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="15"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="25"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="25"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="15"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="25"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="25"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="15"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="25"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="25"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="15"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="25"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="15"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="25"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,203 +1099,294 @@
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="25"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="25"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="15"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="25"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1308,97 +1411,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>ajout d'un formulaire pour le retour, ajout de code dans la classe connection_mySQL, modification du hash passage de MD5 à bcrypt, correction de divers bug</t>
+  </si>
+  <si>
+    <t>Ajout d'un form pour ajouter ou modifier un loueur</t>
+  </si>
+  <si>
+    <t>fini l'ajout et la modification d'un client</t>
+  </si>
+  <si>
+    <t>55min</t>
+  </si>
+  <si>
+    <t>petit difficulté sur comment le faire</t>
+  </si>
+  <si>
+    <t>1h05</t>
+  </si>
+  <si>
+    <t>recherche comment faire un installateur pour le programme final</t>
   </si>
 </sst>
 </file>
@@ -308,43 +326,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,16 +385,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,10 +397,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,20 +700,20 @@
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
@@ -698,601 +721,621 @@
         <v>4</v>
       </c>
       <c r="F3" s="26"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <v>43132</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="5"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>43132</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>43132</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>43133</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>43133</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>43136</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="8">
         <v>43137</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="5"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="8">
         <v>43139</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="8">
         <v>43139</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="8">
         <v>43139</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="8">
         <v>43140</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="8">
         <v>43143</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="8">
         <v>43144</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="5"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="8">
         <v>43146</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="8">
         <v>43147</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="5"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="8">
         <v>43157</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="8">
         <v>43158</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="8">
         <v>43160</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="8">
         <v>43161</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="5"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="5"/>
+      <c r="A24" s="8">
+        <v>43164</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>43165</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="5"/>
+      <c r="A26" s="8">
+        <v>43165</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="5"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="16"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="11"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="7"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="16"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="16"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="16"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="16"/>
-      <c r="F34" s="15"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="15"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="11"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="16"/>
-      <c r="F36" s="15"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="17"/>
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="115">

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -132,6 +132,39 @@
   </si>
   <si>
     <t>recherche comment faire un installateur pour le programme final</t>
+  </si>
+  <si>
+    <t>recherche comment lancer l'application avec les droits admin</t>
+  </si>
+  <si>
+    <t>création d'un utilisateur dans la base de donnée avec des droits limiter sur la base de donnée</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>changement du MCD</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>remise au propre des classes, des uses Case, des sénarii, et de la planification</t>
+  </si>
+  <si>
+    <t>remise au propre des maquettes</t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t>correction bug plus ajout de la durée pour la location</t>
+  </si>
+  <si>
+    <t>25min</t>
+  </si>
+  <si>
+    <t>démonstration au chef de projet de l'application</t>
   </si>
 </sst>
 </file>
@@ -681,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,61 +1104,103 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="8">
+        <v>43167</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="6"/>
+    <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>43167</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="11">
+        <v>43167</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E29" s="16"/>
       <c r="F29" s="14"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="11">
+        <v>43167</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E30" s="16"/>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="11">
+        <v>43167</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E31" s="16"/>
       <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="11">
+        <v>43167</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="C32" s="14"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="E32" s="16"/>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="11">
+        <v>43167</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C33" s="14"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E33" s="16"/>
       <c r="F33" s="14"/>
     </row>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>démonstration au chef de projet de l'application</t>
+  </si>
+  <si>
+    <t>test sur une machine W7 sans droit admin pour le cryptage du mot de passe</t>
+  </si>
+  <si>
+    <t>test réussi</t>
+  </si>
+  <si>
+    <t>documentation sur les tests</t>
   </si>
 </sst>
 </file>
@@ -715,7 +724,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:C36"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,18 +1214,32 @@
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="11">
+        <v>43168</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="C34" s="14"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="16"/>
+      <c r="D34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="11">
+        <v>43168</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="C35" s="14"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E35" s="16"/>
       <c r="F35" s="14"/>
     </row>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>documentation sur les tests</t>
+  </si>
+  <si>
+    <t>recherche comment faire la lecture et l'écriture d'un fichier xml</t>
+  </si>
+  <si>
+    <t>écriture ok lecture pas ok</t>
   </si>
 </sst>
 </file>
@@ -402,44 +408,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,7 +730,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E36" sqref="E36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,42 +748,42 @@
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="21"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1146,14 +1152,14 @@
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="14"/>
       <c r="G29" s="5"/>
     </row>
@@ -1161,70 +1167,70 @@
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="16"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="24" t="s">
         <v>48</v>
       </c>
       <c r="F34" s="14"/>
@@ -1240,294 +1246,211 @@
       <c r="D35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="11">
+        <v>43171</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="16"/>
+      <c r="D36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1552,6 +1475,97 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>écriture ok lecture pas ok</t>
+  </si>
+  <si>
+    <t>lecture du fichier xml fini et test avec une machine debian ou est installer une base de donnée OK</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -408,6 +411,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,12 +441,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,16 +450,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -729,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,42 +767,42 @@
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="15"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1152,14 +1171,14 @@
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="24"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="14"/>
       <c r="G29" s="5"/>
     </row>
@@ -1167,70 +1186,70 @@
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F34" s="14"/>
@@ -1246,211 +1265,438 @@
       <c r="D35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43171</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>43172</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="115">
+  <mergeCells count="141">
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1475,97 +1721,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -35,9 +35,6 @@
     <t>tache</t>
   </si>
   <si>
-    <t>durée</t>
-  </si>
-  <si>
     <t>commentaire</t>
   </si>
   <si>
@@ -47,18 +44,12 @@
     <t>écriture de la donnée du projet</t>
   </si>
   <si>
-    <t>1h30</t>
-  </si>
-  <si>
     <t>planification initiale et création du git et maquette</t>
   </si>
   <si>
     <t>modélisation de la base de donnée et création de la base de donnée</t>
   </si>
   <si>
-    <t>2h15</t>
-  </si>
-  <si>
     <t>Stock manager</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
     <t>modication MCD et MLD</t>
   </si>
   <si>
-    <t>45min</t>
-  </si>
-  <si>
     <t>début du code partie graphique</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>modification des maquettes, modification graphique code</t>
   </si>
   <si>
-    <t>5h15</t>
-  </si>
-  <si>
     <t>requet sql</t>
   </si>
   <si>
@@ -122,15 +107,9 @@
     <t>fini l'ajout et la modification d'un client</t>
   </si>
   <si>
-    <t>55min</t>
-  </si>
-  <si>
     <t>petit difficulté sur comment le faire</t>
   </si>
   <si>
-    <t>1h05</t>
-  </si>
-  <si>
     <t>recherche comment faire un installateur pour le programme final</t>
   </si>
   <si>
@@ -140,30 +119,18 @@
     <t>création d'un utilisateur dans la base de donnée avec des droits limiter sur la base de donnée</t>
   </si>
   <si>
-    <t>10min</t>
-  </si>
-  <si>
     <t>changement du MCD</t>
   </si>
   <si>
-    <t>30min</t>
-  </si>
-  <si>
     <t>remise au propre des classes, des uses Case, des sénarii, et de la planification</t>
   </si>
   <si>
     <t>remise au propre des maquettes</t>
   </si>
   <si>
-    <t>20min</t>
-  </si>
-  <si>
     <t>correction bug plus ajout de la durée pour la location</t>
   </si>
   <si>
-    <t>25min</t>
-  </si>
-  <si>
     <t>démonstration au chef de projet de l'application</t>
   </si>
   <si>
@@ -183,6 +150,18 @@
   </si>
   <si>
     <t>lecture du fichier xml fini et test avec une machine debian ou est installer une base de donnée OK</t>
+  </si>
+  <si>
+    <t>aide Corentin sur du php</t>
+  </si>
+  <si>
+    <t>aide Valentin sur du php</t>
+  </si>
+  <si>
+    <t>durée (min)</t>
+  </si>
+  <si>
+    <t>problème avec wamp serveur impossible de se connecter à la base de donnée</t>
   </si>
 </sst>
 </file>
@@ -377,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -405,65 +384,64 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -748,14 +726,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:C54"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="71.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -764,939 +743,844 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="21"/>
+      <c r="E1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="18"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="27"/>
+      <c r="B4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="9">
+        <v>90</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43132</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="6">
+        <v>90</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43132</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="6">
+        <v>135</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43132</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="6">
+        <v>90</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43133</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="B8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="6">
+        <v>45</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43133</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="6">
+        <v>45</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43136</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="6">
+        <v>90</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43137</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="6">
+        <v>90</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43139</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
+      <c r="B12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="6">
+        <v>90</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43139</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
+      <c r="B13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="6">
+        <v>135</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43139</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="6">
+        <v>90</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
+      <c r="B15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="6">
+        <v>90</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43143</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
+      <c r="B16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="6">
+        <v>90</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43144</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
+      <c r="B17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="6">
+        <v>90</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43146</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
+      <c r="B18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="6">
+        <v>315</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43147</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
+      <c r="B19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="6">
+        <v>90</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43157</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
+      <c r="B20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="6">
+        <v>90</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43158</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
+      <c r="B21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="6">
+        <v>90</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43160</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
+      <c r="B22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="6">
+        <v>315</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43161</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
+      <c r="B23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="6">
+        <v>90</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43164</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
+      <c r="B24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="6">
+        <v>90</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43165</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="20"/>
+      <c r="B25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="6">
+        <v>55</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="23"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43165</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
+      <c r="B26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="6">
+        <v>65</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43167</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
+      <c r="B27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="6">
+        <v>45</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43167</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
+      <c r="B28" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="6">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="14"/>
+      <c r="B29" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="6">
+        <v>30</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="14"/>
+      <c r="B30" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="6">
+        <v>135</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="14"/>
+      <c r="B31" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="6">
+        <v>45</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="14"/>
+      <c r="B32" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="6">
+        <v>20</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="14"/>
+      <c r="B33" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="6">
+        <v>25</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="14"/>
+      <c r="B34" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="6">
+        <v>45</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43168</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="14"/>
+      <c r="B35" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="6">
+        <v>45</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43171</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="14"/>
+      <c r="B36" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="6">
+        <v>90</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43172</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="D37" s="10">
+        <v>90</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="A38" s="12">
+        <v>43174</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="13">
+        <v>10</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
+      <c r="A39" s="12">
+        <v>43174</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="13">
+        <v>10</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
+      <c r="A40" s="12">
+        <v>43174</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13">
+        <v>70</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64">
+        <f>SUM(D4:D63)</f>
+        <v>3130</v>
+      </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1721,6 +1605,123 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>problème avec wamp serveur impossible de se connecter à la base de donnée</t>
+  </si>
+  <si>
+    <t>aucune solution trouver</t>
+  </si>
+  <si>
+    <t>résolution du problème</t>
+  </si>
+  <si>
+    <t>remise au propre de la classe connection_mySQL,</t>
+  </si>
+  <si>
+    <t>problème de dll</t>
   </si>
 </sst>
 </file>
@@ -387,16 +399,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -411,12 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,24 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,7 +739,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:F39"/>
+      <selection activeCell="E47" sqref="E47:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,42 +758,42 @@
         <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="9">
         <v>90</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -795,188 +807,188 @@
       <c r="D5" s="6">
         <v>90</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43132</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="6">
         <v>135</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43132</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="6">
         <v>90</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43133</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="6">
         <v>45</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43133</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="6">
         <v>45</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43136</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="6">
         <v>90</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43137</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="6">
         <v>90</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43139</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="6">
         <v>90</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43139</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="6">
         <v>135</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43139</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="6">
         <v>90</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="6">
         <v>90</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43143</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="6">
         <v>90</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43144</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="6">
         <v>90</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -990,108 +1002,108 @@
       <c r="D18" s="6">
         <v>315</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43147</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="6">
         <v>90</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43157</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="6">
         <v>90</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43158</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="6">
         <v>90</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43160</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="6">
         <v>315</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43161</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="6">
         <v>90</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43164</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="6">
         <v>90</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43165</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="6">
         <v>55</v>
       </c>
@@ -1105,30 +1117,30 @@
       <c r="A26" s="8">
         <v>43165</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="6">
         <v>65</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43167</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="6">
         <v>45</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1142,445 +1154,584 @@
       <c r="D28" s="6">
         <v>10</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="6">
         <v>30</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="6">
         <v>135</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="17"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="6">
         <v>45</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="17"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="6">
         <v>20</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="17"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="6">
         <v>25</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="6">
         <v>45</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43168</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="6">
         <v>45</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43171</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="6">
         <v>90</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43172</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="10">
         <v>90</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>43174</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="13">
         <v>10</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>43174</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="13">
         <v>10</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>43174</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="13">
         <v>70</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="A41" s="12">
+        <v>43174</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="13">
+        <v>90</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="A42" s="12">
+        <v>43174</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="13">
+        <v>20</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="A43" s="12">
+        <v>43174</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="13">
+        <v>70</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="13"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
       <c r="D64">
         <f>SUM(D4:D63)</f>
-        <v>3130</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1605,123 +1756,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -170,10 +170,13 @@
     <t>résolution du problème</t>
   </si>
   <si>
-    <t>remise au propre de la classe connection_mySQL,</t>
-  </si>
-  <si>
     <t>problème de dll</t>
+  </si>
+  <si>
+    <t>test ajout location et modification Classe XML et Cryptage sur le chemin d'enregistrement des fichiers</t>
+  </si>
+  <si>
+    <t>remise au propre de la classe connection_mySQL</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -455,6 +458,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,13 +745,13 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47:F47"/>
+      <selection activeCell="B43" sqref="B43:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="71.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1359,7 +1365,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="17"/>
     </row>
@@ -1368,7 +1374,7 @@
         <v>43174</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="13">
@@ -1378,18 +1384,30 @@
       <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="12">
+        <v>43175</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="13"/>
+      <c r="D44" s="13">
+        <v>20</v>
+      </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="13"/>
+    <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>43175</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="13">
+        <v>70</v>
+      </c>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
     </row>
@@ -1542,7 +1560,7 @@
       <c r="C64" s="16"/>
       <c r="D64">
         <f>SUM(D4:D63)</f>
-        <v>3310</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>remise au propre de la classe connection_mySQL</t>
+  </si>
+  <si>
+    <t>ajout de la fonction de rechercher sur le form inventaire</t>
   </si>
 </sst>
 </file>
@@ -402,65 +405,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,7 +748,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:C43"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,42 +767,42 @@
         <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="26"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="9">
         <v>90</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="32"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -813,188 +816,188 @@
       <c r="D5" s="6">
         <v>90</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43132</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="6">
         <v>135</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43132</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="6">
         <v>90</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43133</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="6">
         <v>45</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43133</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="6">
         <v>45</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43136</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="6">
         <v>90</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43137</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="6">
         <v>90</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43139</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="6">
         <v>90</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43139</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="6">
         <v>135</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43139</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="6">
         <v>90</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="6">
         <v>90</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43143</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="6">
         <v>90</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43144</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="6">
         <v>90</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1008,108 +1011,108 @@
       <c r="D18" s="6">
         <v>315</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43147</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="6">
         <v>90</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43157</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="6">
         <v>90</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43158</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="6">
         <v>90</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43160</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="6">
         <v>315</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43161</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="6">
         <v>90</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43164</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="6">
         <v>90</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43165</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="6">
         <v>55</v>
       </c>
@@ -1123,30 +1126,30 @@
       <c r="A26" s="8">
         <v>43165</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="6">
         <v>65</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43167</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="6">
         <v>45</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1160,596 +1163,485 @@
       <c r="D28" s="6">
         <v>10</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="6">
         <v>30</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="6">
         <v>135</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="6">
         <v>45</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="15"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="6">
         <v>20</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="6">
         <v>25</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="6">
         <v>45</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="15"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43168</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="6">
         <v>45</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="15"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43171</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="6">
         <v>90</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43172</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="21"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="10">
         <v>90</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>43174</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="18"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="13">
         <v>10</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>43174</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="13">
         <v>10</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>43174</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="13">
         <v>70</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43174</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="13">
         <v>90</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="17"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>43174</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="13">
         <v>20</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="17"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>43174</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="13">
         <v>70</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43175</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="13">
         <v>20</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43175</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="13">
         <v>70</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="A46" s="12">
+        <v>43178</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13">
+        <v>90</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
       <c r="D64">
         <f>SUM(D4:D63)</f>
-        <v>3400</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1774,6 +1666,123 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>ajout de la fonction de rechercher sur le form inventaire</t>
+  </si>
+  <si>
+    <t>modification maquette</t>
+  </si>
+  <si>
+    <t>débug</t>
   </si>
 </sst>
 </file>
@@ -405,16 +411,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -429,12 +462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,27 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +754,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,881 +773,1016 @@
         <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="9">
         <v>90</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43132</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="6">
         <v>90</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43132</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="6">
         <v>135</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43132</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="6">
         <v>90</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43133</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="6">
         <v>45</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43133</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="6">
         <v>45</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43136</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="6">
         <v>90</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43137</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="6">
         <v>90</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43139</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="6">
         <v>90</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43139</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="6">
         <v>135</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43139</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="6">
         <v>90</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="6">
         <v>90</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43143</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="6">
         <v>90</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43144</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="6">
         <v>90</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43146</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="6">
         <v>315</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43147</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="6">
         <v>90</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43157</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="6">
         <v>90</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43158</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="6">
         <v>90</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43160</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="6">
         <v>315</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43161</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="6">
         <v>90</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43164</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="6">
         <v>90</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43165</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="6">
         <v>55</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43165</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="6">
         <v>65</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43167</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="6">
         <v>45</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43167</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="6">
         <v>10</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="6">
         <v>30</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="6">
         <v>135</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="17"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="6">
         <v>45</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="17"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="6">
         <v>20</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="17"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="6">
         <v>25</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="6">
         <v>45</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43168</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="6">
         <v>45</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43171</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="6">
         <v>90</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43172</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="10">
         <v>90</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>43174</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="13">
         <v>10</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>43174</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="13">
         <v>10</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>43174</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="13">
         <v>70</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43174</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="13">
         <v>90</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>43174</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="13">
         <v>20</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>43174</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="13">
         <v>70</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43175</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="13">
         <v>20</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43175</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="32"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="13">
         <v>70</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>43178</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="13">
         <v>90</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="A47" s="12">
+        <v>43179</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="13">
+        <v>45</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="A48" s="12">
+        <v>43179</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="13">
+        <v>20</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="A49" s="12">
+        <v>43179</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="13">
+        <v>25</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
       <c r="D64">
         <f>SUM(D4:D63)</f>
-        <v>3490</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1666,123 +1807,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>débug</t>
+  </si>
+  <si>
+    <t>remise au propre des classes XML et Config et Classe sur Astah</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -411,65 +417,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,1016 +779,923 @@
         <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="27"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="9">
         <v>90</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="33"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43132</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="6">
         <v>90</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43132</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="6">
         <v>135</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43132</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="6">
         <v>90</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43133</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="6">
         <v>45</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43133</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="6">
         <v>45</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43136</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="6">
         <v>90</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43137</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="6">
         <v>90</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43139</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="6">
         <v>90</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43139</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="6">
         <v>135</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43139</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="6">
         <v>90</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="6">
         <v>90</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43143</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="6">
         <v>90</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43144</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="6">
         <v>90</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43146</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="6">
         <v>315</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43147</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="6">
         <v>90</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43157</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="6">
         <v>90</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43158</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="6">
         <v>90</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43160</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="6">
         <v>315</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43161</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="6">
         <v>90</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43164</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="6">
         <v>90</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43165</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="6">
         <v>55</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43165</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="6">
         <v>65</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43167</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="6">
         <v>45</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43167</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="6">
         <v>10</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="6">
         <v>30</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="6">
         <v>135</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="6">
         <v>45</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="15"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="6">
         <v>20</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="6">
         <v>25</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="6">
         <v>45</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="15"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43168</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="6">
         <v>45</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="15"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43171</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="6">
         <v>90</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43172</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="10">
         <v>90</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>43174</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="13">
         <v>10</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>43174</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="13">
         <v>10</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>43174</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="13">
         <v>70</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43174</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="13">
         <v>90</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="17"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>43174</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="13">
         <v>20</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="17"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>43174</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="13">
         <v>70</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43175</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="13">
         <v>20</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43175</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="13">
         <v>70</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>43178</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="13">
         <v>90</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>43179</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="13">
         <v>45</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>43179</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="13">
         <v>20</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>43179</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="13">
         <v>25</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="A50" s="12">
+        <v>43181</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13">
+        <v>65</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="A51" s="12">
+        <v>43181</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="13">
+        <v>35</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="A52" s="12">
+        <v>43181</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13">
+        <v>125</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="A53" s="12">
+        <v>43181</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="13">
+        <v>90</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
       <c r="D64">
         <f>SUM(D4:D63)</f>
-        <v>3580</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1807,6 +1720,123 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>écriture de test</t>
   </si>
 </sst>
 </file>
@@ -417,16 +420,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -441,12 +471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,27 +479,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,7 +763,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="B55" sqref="B55:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,923 +782,1046 @@
         <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="9">
         <v>90</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43132</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="6">
         <v>90</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43132</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="6">
         <v>135</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43132</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="6">
         <v>90</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43133</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="6">
         <v>45</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43133</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="6">
         <v>45</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43136</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="6">
         <v>90</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43137</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="6">
         <v>90</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43139</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="6">
         <v>90</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43139</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="6">
         <v>135</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43139</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="6">
         <v>90</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="6">
         <v>90</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43143</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="6">
         <v>90</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43144</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="6">
         <v>90</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43146</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="6">
         <v>315</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43147</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="6">
         <v>90</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43157</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="6">
         <v>90</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43158</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="6">
         <v>90</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43160</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="6">
         <v>315</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43161</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="6">
         <v>90</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43164</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="6">
         <v>90</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43165</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="6">
         <v>55</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43165</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="6">
         <v>65</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43167</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="6">
         <v>45</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43167</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="6">
         <v>10</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="6">
         <v>30</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="6">
         <v>135</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="17"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="6">
         <v>45</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="17"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="6">
         <v>20</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="17"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="6">
         <v>25</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="6">
         <v>45</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43168</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="6">
         <v>45</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43171</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="6">
         <v>90</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43172</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="10">
         <v>90</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>43174</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="13">
         <v>10</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>43174</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="13">
         <v>10</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>43174</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="13">
         <v>70</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43174</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="13">
         <v>90</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>43174</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="13">
         <v>20</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>43174</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="13">
         <v>70</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43175</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="13">
         <v>20</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43175</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="32"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="13">
         <v>70</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>43178</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="13">
         <v>90</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>43179</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="14"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="13">
         <v>45</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>43179</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="14"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="13">
         <v>20</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>43179</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="13">
         <v>25</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>43181</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="13">
         <v>65</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>43181</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="13">
         <v>35</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>43181</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="14"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="13">
         <v>125</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>43181</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="14"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="13">
         <v>90</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="A54" s="12">
+        <v>43182</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="13">
+        <v>90</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
       <c r="D64">
         <f>SUM(D4:D63)</f>
-        <v>3895</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1720,123 +1846,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>écriture de test</t>
+  </si>
+  <si>
+    <t>écriture du manuel d'utilisation</t>
   </si>
 </sst>
 </file>
@@ -420,65 +423,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,7 +766,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:C55"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,1046 +785,935 @@
         <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="27"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="9">
         <v>90</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="33"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43132</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="6">
         <v>90</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43132</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="6">
         <v>135</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43132</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="6">
         <v>90</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43133</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="6">
         <v>45</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43133</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="6">
         <v>45</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43136</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="6">
         <v>90</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43137</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="6">
         <v>90</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43139</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="6">
         <v>90</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43139</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="6">
         <v>135</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43139</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="6">
         <v>90</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="6">
         <v>90</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43143</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="6">
         <v>90</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43144</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="6">
         <v>90</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43146</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="6">
         <v>315</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43147</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="6">
         <v>90</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43157</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="6">
         <v>90</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43158</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="6">
         <v>90</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43160</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="6">
         <v>315</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43161</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="6">
         <v>90</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43164</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="6">
         <v>90</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43165</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="6">
         <v>55</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43165</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="6">
         <v>65</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43167</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="6">
         <v>45</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43167</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="6">
         <v>10</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="6">
         <v>30</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="6">
         <v>135</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="6">
         <v>45</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="15"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="6">
         <v>20</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="6">
         <v>25</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="6">
         <v>45</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="15"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43168</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="6">
         <v>45</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="15"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43171</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="6">
         <v>90</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43172</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="10">
         <v>90</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>43174</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="13">
         <v>10</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>43174</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="13">
         <v>10</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>43174</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="13">
         <v>70</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43174</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="13">
         <v>90</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="17"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>43174</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="13">
         <v>20</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="17"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>43174</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="13">
         <v>70</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43175</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="13">
         <v>20</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43175</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="13">
         <v>70</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>43178</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="13">
         <v>90</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>43179</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="13">
         <v>45</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>43179</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="13">
         <v>20</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>43179</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="13">
         <v>25</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>43181</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="13">
         <v>65</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>43181</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="13">
         <v>35</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>43181</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="17"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="13">
         <v>125</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>43181</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="17"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="13">
         <v>90</v>
       </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>43182</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="17"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="13">
         <v>90</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="A55" s="12">
+        <v>43185</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="13">
+        <v>90</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
       <c r="D64">
         <f>SUM(D4:D63)</f>
-        <v>3985</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1846,6 +1738,123 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -423,16 +423,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -447,12 +474,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,27 +482,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,7 +766,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="B59" sqref="B59:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,935 +785,1058 @@
         <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="9">
         <v>90</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43132</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="6">
         <v>90</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43132</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="6">
         <v>135</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43132</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="6">
         <v>90</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43133</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="6">
         <v>45</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43133</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="6">
         <v>45</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43136</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="6">
         <v>90</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43137</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="6">
         <v>90</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43139</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="6">
         <v>90</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43139</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="6">
         <v>135</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43139</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="6">
         <v>90</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="6">
         <v>90</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43143</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="6">
         <v>90</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43144</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="6">
         <v>90</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43146</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="6">
         <v>315</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43147</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="6">
         <v>90</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43157</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="6">
         <v>90</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43158</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="6">
         <v>90</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43160</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="6">
         <v>315</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43161</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="6">
         <v>90</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43164</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="6">
         <v>90</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43165</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="6">
         <v>55</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43165</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="6">
         <v>65</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43167</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="6">
         <v>45</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43167</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="6">
         <v>10</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="6">
         <v>30</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="6">
         <v>135</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="17"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="6">
         <v>45</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="17"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="6">
         <v>20</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="17"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="6">
         <v>25</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="6">
         <v>45</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43168</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="6">
         <v>45</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43171</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="6">
         <v>90</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43172</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="10">
         <v>90</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>43174</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="13">
         <v>10</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>43174</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="13">
         <v>10</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>43174</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="13">
         <v>70</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43174</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="13">
         <v>90</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>43174</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="13">
         <v>20</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>43174</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="13">
         <v>70</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43175</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="13">
         <v>20</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43175</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="32"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="13">
         <v>70</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>43178</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="13">
         <v>90</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>43179</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="14"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="13">
         <v>45</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>43179</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="14"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="13">
         <v>20</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>43179</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="13">
         <v>25</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>43181</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="13">
         <v>65</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>43181</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="13">
         <v>35</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>43181</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="14"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="13">
         <v>125</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>43181</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="14"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="13">
         <v>90</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>43182</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="13">
         <v>90</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>43185</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="14"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="13">
         <v>90</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="A56" s="12">
+        <v>43186</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="13">
+        <v>90</v>
+      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
       <c r="D64">
         <f>SUM(D4:D63)</f>
-        <v>4075</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1738,123 +1861,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:C59"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,26 +1587,44 @@
       <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="12">
+        <v>43188</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="C57" s="17"/>
-      <c r="D57" s="13"/>
+      <c r="D57" s="13">
+        <v>90</v>
+      </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="17"/>
+      <c r="A58" s="12">
+        <v>43188</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="C58" s="17"/>
-      <c r="D58" s="13"/>
+      <c r="D58" s="13">
+        <v>135</v>
+      </c>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="17"/>
+      <c r="A59" s="12">
+        <v>43188</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="C59" s="17"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="13">
+        <v>90</v>
+      </c>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
     </row>
@@ -1647,7 +1665,7 @@
       <c r="C64" s="16"/>
       <c r="D64">
         <f>SUM(D4:D63)</f>
-        <v>4165</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -194,10 +194,10 @@
     <t>test</t>
   </si>
   <si>
-    <t>écriture de test</t>
-  </si>
-  <si>
     <t>écriture du manuel d'utilisation</t>
+  </si>
+  <si>
+    <t>écriture des tests</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -423,65 +423,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,7 +769,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="B61" sqref="B61:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,42 +788,42 @@
         <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="27"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="9">
         <v>90</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="33"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -834,188 +837,188 @@
       <c r="D5" s="6">
         <v>90</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43132</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="6">
         <v>135</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43132</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="6">
         <v>90</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43133</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="6">
         <v>45</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43133</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="6">
         <v>45</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43136</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="6">
         <v>90</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43137</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="6">
         <v>90</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43139</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="6">
         <v>90</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43139</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="6">
         <v>135</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43139</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="6">
         <v>90</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="6">
         <v>90</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43143</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="6">
         <v>90</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43144</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="6">
         <v>90</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1029,108 +1032,108 @@
       <c r="D18" s="6">
         <v>315</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43147</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="6">
         <v>90</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43157</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="6">
         <v>90</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43158</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="6">
         <v>90</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43160</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="6">
         <v>315</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43161</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="6">
         <v>90</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43164</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="6">
         <v>90</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43165</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="6">
         <v>55</v>
       </c>
@@ -1144,30 +1147,30 @@
       <c r="A26" s="8">
         <v>43165</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="6">
         <v>65</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43167</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="6">
         <v>45</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1181,680 +1184,569 @@
       <c r="D28" s="6">
         <v>10</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="6">
         <v>30</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="6">
         <v>135</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="6">
         <v>45</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="15"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="6">
         <v>20</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="6">
         <v>25</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="6">
         <v>45</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="15"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43168</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="6">
         <v>45</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="15"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43171</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="6">
         <v>90</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43172</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="10">
         <v>90</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>43174</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="13">
         <v>10</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>43174</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="13">
         <v>10</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>43174</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="13">
         <v>70</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43174</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="13">
         <v>90</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="17"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>43174</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="13">
         <v>20</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="17"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>43174</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="13">
         <v>70</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43175</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="13">
         <v>20</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43175</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="13">
         <v>70</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>43178</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="13">
         <v>90</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>43179</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="13">
         <v>45</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>43179</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="13">
         <v>20</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>43179</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="13">
         <v>25</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>43181</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="13">
         <v>65</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>43181</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="13">
         <v>35</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>43181</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="17"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="13">
         <v>125</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>43181</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="17"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="13">
         <v>90</v>
       </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>43182</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="17"/>
+      <c r="B54" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="15"/>
       <c r="D54" s="13">
         <v>90</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>43185</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="17"/>
+      <c r="B55" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="15"/>
       <c r="D55" s="13">
         <v>90</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>43186</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="17"/>
+      <c r="B56" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="15"/>
       <c r="D56" s="13">
         <v>90</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>43188</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="17"/>
+      <c r="B57" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="15"/>
       <c r="D57" s="13">
         <v>90</v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>43188</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="17"/>
+      <c r="B58" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="15"/>
       <c r="D58" s="13">
         <v>135</v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>43188</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="13">
+        <v>90</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>43175</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="13">
-        <v>90</v>
-      </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="14">
+        <v>90</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
       <c r="D64">
         <f>SUM(D4:D63)</f>
-        <v>4480</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1879,6 +1771,123 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -426,16 +426,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -450,12 +477,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,27 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,7 +769,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:C61"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,965 +788,1088 @@
         <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="9">
         <v>90</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43132</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="6">
         <v>90</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43132</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="6">
         <v>135</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43132</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="6">
         <v>90</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43133</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="6">
         <v>45</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43133</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="6">
         <v>45</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43136</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="6">
         <v>90</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43137</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="6">
         <v>90</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43139</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="6">
         <v>90</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43139</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="6">
         <v>135</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43139</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="6">
         <v>90</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="6">
         <v>90</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43143</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="6">
         <v>90</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43144</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="6">
         <v>90</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43146</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="6">
         <v>315</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43147</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="6">
         <v>90</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43157</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="6">
         <v>90</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43158</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="6">
         <v>90</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43160</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="6">
         <v>315</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43161</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="6">
         <v>90</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43164</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="6">
         <v>90</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43165</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="6">
         <v>55</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43165</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="6">
         <v>65</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43167</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="6">
         <v>45</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43167</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="6">
         <v>10</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="6">
         <v>30</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="6">
         <v>135</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="6">
         <v>45</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="6">
         <v>20</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="18"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="6">
         <v>25</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="18"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="6">
         <v>45</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43168</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="6">
         <v>45</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="18"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43171</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="6">
         <v>90</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43172</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="30"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="10">
         <v>90</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>43174</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="13">
         <v>10</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>43174</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="13">
         <v>10</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>43174</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="13">
         <v>70</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43174</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="13">
         <v>90</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>43174</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="13">
         <v>20</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>43174</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="15"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="13">
         <v>70</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43175</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="13">
         <v>20</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43175</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="13">
         <v>70</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>43178</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="13">
         <v>90</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>43179</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="15"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="13">
         <v>45</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>43179</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="15"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="13">
         <v>20</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>43179</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="15"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="13">
         <v>25</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>43181</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="15"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="13">
         <v>65</v>
       </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>43181</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="15"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="13">
         <v>35</v>
       </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>43181</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="15"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="13">
         <v>125</v>
       </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>43181</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="15"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="13">
         <v>90</v>
       </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>43182</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="15"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="13">
         <v>90</v>
       </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>43185</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="15"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="13">
         <v>90</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>43186</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="15"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="13">
         <v>90</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>43188</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="15"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="13">
         <v>90</v>
       </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>43188</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="15"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="13">
         <v>135</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>43188</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="15"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="13">
         <v>90</v>
       </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
-        <v>43175</v>
-      </c>
-      <c r="B60" s="15" t="s">
+        <v>43206</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="15"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="14">
         <v>90</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
+      <c r="A61" s="12">
+        <v>43207</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="13">
+        <v>90</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
       <c r="D64">
         <f>SUM(D4:D63)</f>
-        <v>4570</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1771,123 +1894,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>écriture des tests</t>
+  </si>
+  <si>
+    <t>documentation finale</t>
   </si>
 </sst>
 </file>
@@ -426,65 +429,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,7 +772,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,1088 +791,977 @@
         <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="28"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="9">
         <v>90</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="34"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43132</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="6">
         <v>90</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43132</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="6">
         <v>135</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43132</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="6">
         <v>90</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43133</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="6">
         <v>45</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43133</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="6">
         <v>45</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43136</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="6">
         <v>90</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43137</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="6">
         <v>90</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43139</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="6">
         <v>90</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43139</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="6">
         <v>135</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43139</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="6">
         <v>90</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="6">
         <v>90</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43143</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="6">
         <v>90</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43144</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="6">
         <v>90</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43146</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="6">
         <v>315</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43147</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="6">
         <v>90</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43157</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="6">
         <v>90</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43158</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="6">
         <v>90</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43160</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="6">
         <v>315</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43161</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="6">
         <v>90</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43164</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="6">
         <v>90</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43165</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="6">
         <v>55</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43165</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="6">
         <v>65</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43167</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="6">
         <v>45</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43167</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="6">
         <v>10</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="6">
         <v>30</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="16"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="6">
         <v>135</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="16"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="6">
         <v>45</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="16"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="16"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="6">
         <v>20</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="16"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="16"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="6">
         <v>25</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="16"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="16"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="6">
         <v>45</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="16"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43168</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="16"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="6">
         <v>45</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="16"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43171</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="16"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="6">
         <v>90</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="16"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43172</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="10">
         <v>90</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>43174</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="13">
         <v>10</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>43174</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="18"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="13">
         <v>10</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>43174</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="13">
         <v>70</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43174</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="18"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="13">
         <v>90</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>43174</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="18"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="13">
         <v>20</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>43174</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="13">
         <v>70</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43175</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="13">
         <v>20</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43175</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="19"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="13">
         <v>70</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>43178</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="18"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="13">
         <v>90</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>43179</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="18"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="13">
         <v>45</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>43179</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="13">
         <v>20</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>43179</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="18"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="13">
         <v>25</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>43181</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="18"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="13">
         <v>65</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>43181</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="18"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="13">
         <v>35</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>43181</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="18"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="13">
         <v>125</v>
       </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>43181</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="18"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="13">
         <v>90</v>
       </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>43182</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="18"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="13">
         <v>90</v>
       </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>43185</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="18"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="13">
         <v>90</v>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>43186</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="18"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="13">
         <v>90</v>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>43188</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="18"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="13">
         <v>90</v>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>43188</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="18"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="13">
         <v>135</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>43188</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="18"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="13">
         <v>90</v>
       </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>43206</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="18"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="14">
         <v>90</v>
       </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>43207</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="13">
         <v>90</v>
       </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
+      <c r="A62" s="12">
+        <v>43209</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="13">
+        <v>315</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
       <c r="D64">
         <f>SUM(D4:D63)</f>
-        <v>4660</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1894,6 +1786,123 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/journal de travail/Journal_travail.xlsx
+++ b/journal de travail/Journal_travail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -429,16 +429,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -453,12 +480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,27 +488,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,977 +791,1096 @@
         <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43129</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="9">
         <v>90</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43132</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="6">
         <v>90</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43132</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="6">
         <v>135</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43132</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="6">
         <v>90</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43133</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="6">
         <v>45</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43133</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="6">
         <v>45</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43136</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="6">
         <v>90</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43137</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="6">
         <v>90</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43139</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="6">
         <v>90</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43139</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="6">
         <v>135</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43139</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="6">
         <v>90</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43140</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="6">
         <v>90</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43143</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="6">
         <v>90</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43144</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="6">
         <v>90</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43146</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="6">
         <v>315</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43147</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="6">
         <v>90</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43157</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="6">
         <v>90</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43158</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="6">
         <v>90</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43160</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="6">
         <v>315</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43161</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="6">
         <v>90</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43164</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="6">
         <v>90</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43165</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="6">
         <v>55</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43165</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="6">
         <v>65</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43167</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="6">
         <v>45</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43167</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="6">
         <v>10</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>43167</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="6">
         <v>30</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>43167</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="6">
         <v>135</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>43167</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="6">
         <v>45</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43167</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="6">
         <v>20</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="18"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>43167</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="6">
         <v>25</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="18"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43168</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="6">
         <v>45</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43168</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="6">
         <v>45</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="18"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43171</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="6">
         <v>90</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43172</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="30"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="10">
         <v>90</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>43174</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="13">
         <v>10</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>43174</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="13">
         <v>10</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>43174</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="13">
         <v>70</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43174</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="13">
         <v>90</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>43174</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="13">
         <v>20</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>43174</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="15"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="13">
         <v>70</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43175</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="13">
         <v>20</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43175</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="13">
         <v>70</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>43178</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="13">
         <v>90</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>43179</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="15"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="13">
         <v>45</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>43179</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="15"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="13">
         <v>20</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>43179</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="15"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="13">
         <v>25</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>43181</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="15"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="13">
         <v>65</v>
       </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>43181</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="15"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="13">
         <v>35</v>
       </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>43181</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="15"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="13">
         <v>125</v>
       </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>43181</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="15"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="13">
         <v>90</v>
       </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>43182</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="15"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="13">
         <v>90</v>
       </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>43185</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="15"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="13">
         <v>90</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>43186</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="15"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="13">
         <v>90</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>43188</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="15"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="13">
         <v>90</v>
       </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>43188</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="15"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="13">
         <v>135</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>43188</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="15"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="13">
         <v>90</v>
       </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>43206</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="15"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="14">
         <v>90</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>43207</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="15"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="13">
         <v>90</v>
       </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>43209</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="15"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="13">
         <v>315</v>
       </c>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
+      <c r="A63" s="12">
+        <v>43210</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="13">
+        <v>90</v>
+      </c>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64">
-        <f>SUM(D4:D63)</f>
-        <v>4975</v>
-      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1786,123 +1905,6 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>
